--- a/sim5/sim5.xlsx
+++ b/sim5/sim5.xlsx
@@ -478,16 +478,16 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>9.9</v>
+        <v>28.05</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.8</v>
+        <v>-56.1</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.9</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3">
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.48242643759755</v>
+        <v>27.43354157319305</v>
       </c>
       <c r="F3" t="n">
-        <v>-58.12303830362603</v>
+        <v>-52.48194186027376</v>
       </c>
       <c r="G3" t="n">
-        <v>-28.64061186602849</v>
+        <v>-25.04840028708071</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>40.93448739231508</v>
+        <v>43.33063113183997</v>
       </c>
       <c r="F4" t="n">
-        <v>-78.57450832430243</v>
+        <v>-82.09722319830936</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.64002093198735</v>
+        <v>-38.7665920664694</v>
       </c>
     </row>
     <row r="5">
@@ -556,13 +556,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>84.03486494311666</v>
+        <v>82.37834832613278</v>
       </c>
       <c r="F5" t="n">
-        <v>-161.5070013828099</v>
+        <v>-156.8025257537182</v>
       </c>
       <c r="G5" t="n">
-        <v>-77.47213643969324</v>
+        <v>-74.42417742758541</v>
       </c>
     </row>
     <row r="6">
@@ -581,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>82.18802000052241</v>
+        <v>80.56790886046136</v>
       </c>
       <c r="F6" t="n">
-        <v>-151.0909279251298</v>
+        <v>-146.6898581132035</v>
       </c>
       <c r="G6" t="n">
-        <v>-68.9029079246074</v>
+        <v>-66.12194925274216</v>
       </c>
     </row>
     <row r="7">
@@ -603,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>100.1817634047327</v>
+        <v>85.39725765378591</v>
       </c>
       <c r="F7" t="n">
-        <v>-180.9466184488677</v>
+        <v>-150.4293868981988</v>
       </c>
       <c r="G7" t="n">
-        <v>-80.76485504413495</v>
+        <v>-65.03212924441289</v>
       </c>
     </row>
     <row r="8">
@@ -631,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>125.4800560156693</v>
+        <v>108.5204712328632</v>
       </c>
       <c r="F8" t="n">
-        <v>-224.2768254767667</v>
+        <v>-190.7277421972887</v>
       </c>
       <c r="G8" t="n">
-        <v>-98.79676946109737</v>
+        <v>-82.20727096442548</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>122.7223648239735</v>
+        <v>106.1355029985474</v>
       </c>
       <c r="F9" t="n">
-        <v>-209.8125368142323</v>
+        <v>-178.4271350648732</v>
       </c>
       <c r="G9" t="n">
-        <v>-87.09017199025885</v>
+        <v>-72.29163206632587</v>
       </c>
     </row>
     <row r="10">
@@ -671,23 +671,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>139.8252797632456</v>
+        <v>103.8029495152372</v>
       </c>
       <c r="F10" t="n">
-        <v>-235.8810937369178</v>
+        <v>-166.9198311723688</v>
       </c>
       <c r="G10" t="n">
-        <v>-96.05581397367217</v>
+        <v>-63.11688165713157</v>
       </c>
     </row>
     <row r="11">
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>153.2523217600124</v>
+        <v>115.8216588572663</v>
       </c>
       <c r="F11" t="n">
-        <v>-253.6684108277844</v>
+        <v>-184.7546680020494</v>
       </c>
       <c r="G11" t="n">
-        <v>-100.416089067772</v>
+        <v>-68.93300914478309</v>
       </c>
     </row>
     <row r="12">
@@ -721,23 +721,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10km_pacerunnning</t>
+          <t>12km_pacerunnning</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>193.8842759426616</v>
+        <v>155.276231491515</v>
       </c>
       <c r="F12" t="n">
-        <v>-325.3085702112623</v>
+        <v>-256.8392824331147</v>
       </c>
       <c r="G12" t="n">
-        <v>-131.4242942686008</v>
+        <v>-101.5630509415997</v>
       </c>
     </row>
     <row r="13">
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>189.6232564870388</v>
+        <v>151.8637059519153</v>
       </c>
       <c r="F13" t="n">
-        <v>-304.3284397232844</v>
+        <v>-240.2749427466873</v>
       </c>
       <c r="G13" t="n">
-        <v>-114.7051832362456</v>
+        <v>-88.41123679477198</v>
       </c>
     </row>
     <row r="14">
@@ -778,16 +778,16 @@
         <v>1.5</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>205.2558819993378</v>
+        <v>173.2761779212489</v>
       </c>
       <c r="F14" t="n">
-        <v>-324.3013811049062</v>
+        <v>-274.278887267598</v>
       </c>
       <c r="G14" t="n">
-        <v>-119.0454991055684</v>
+        <v>-101.0027093463491</v>
       </c>
     </row>
     <row r="15">
@@ -806,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>228.2449473073526</v>
+        <v>194.4680652636926</v>
       </c>
       <c r="F15" t="n">
-        <v>-358.3862072790405</v>
+        <v>-306.5898148855376</v>
       </c>
       <c r="G15" t="n">
-        <v>-130.1412599716879</v>
+        <v>-112.121749621845</v>
       </c>
     </row>
     <row r="16">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>223.2287789956333</v>
+        <v>190.1942157957194</v>
       </c>
       <c r="F16" t="n">
-        <v>-335.2728002485316</v>
+        <v>-286.8169133649711</v>
       </c>
       <c r="G16" t="n">
-        <v>-112.0440212528983</v>
+        <v>-96.62269756925167</v>
       </c>
     </row>
     <row r="17">
@@ -846,23 +846,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>246.3728516545393</v>
+        <v>186.0142932624855</v>
       </c>
       <c r="F17" t="n">
-        <v>-369.7500465236117</v>
+        <v>-268.3192258781388</v>
       </c>
       <c r="G17" t="n">
-        <v>-123.3771948690723</v>
+        <v>-82.30493261565334</v>
       </c>
     </row>
     <row r="18">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>254.1582840773949</v>
+        <v>192.9262334197689</v>
       </c>
       <c r="F18" t="n">
-        <v>-372.3037512386043</v>
+        <v>-273.0145100272753</v>
       </c>
       <c r="G18" t="n">
-        <v>-118.1454671612094</v>
+        <v>-80.08827660750634</v>
       </c>
     </row>
     <row r="19">
@@ -896,23 +896,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12km_pacerunnning</t>
+          <t>10km_pacerunnning</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>294.7726150591309</v>
+        <v>228.6862689868369</v>
       </c>
       <c r="F19" t="n">
-        <v>-440.6927598371882</v>
+        <v>-335.4069811455007</v>
       </c>
       <c r="G19" t="n">
-        <v>-145.9201447780573</v>
+        <v>-106.7207121586637</v>
       </c>
     </row>
     <row r="20">
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>288.2943597099286</v>
+        <v>223.6604016922923</v>
       </c>
       <c r="F20" t="n">
-        <v>-412.2711550805507</v>
+        <v>-313.775573689984</v>
       </c>
       <c r="G20" t="n">
-        <v>-123.9767953706221</v>
+        <v>-90.1151719976917</v>
       </c>
     </row>
     <row r="21">
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>302.858477804613</v>
+        <v>231.9449885241553</v>
       </c>
       <c r="F21" t="n">
-        <v>-427.4825453049086</v>
+        <v>-319.9392409192831</v>
       </c>
       <c r="G21" t="n">
-        <v>-124.6240675002956</v>
+        <v>-87.9942523951278</v>
       </c>
     </row>
     <row r="22">
@@ -981,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>323.7025184187813</v>
+        <v>251.847503934802</v>
       </c>
       <c r="F22" t="n">
-        <v>-454.9129071118369</v>
+        <v>-349.3053946657029</v>
       </c>
       <c r="G22" t="n">
-        <v>-131.2103886930557</v>
+        <v>-97.45789073090089</v>
       </c>
     </row>
     <row r="23">
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>316.5884668944358</v>
+        <v>246.3126192263918</v>
       </c>
       <c r="F23" t="n">
-        <v>-425.574202184163</v>
+        <v>-326.7776366189911</v>
       </c>
       <c r="G23" t="n">
-        <v>-108.9857352897272</v>
+        <v>-80.46501739259929</v>
       </c>
     </row>
     <row r="24">
@@ -1021,23 +1021,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>326.130761787592</v>
+        <v>240.8993753850013</v>
       </c>
       <c r="F24" t="n">
-        <v>-431.1276387925424</v>
+        <v>-305.70276160919</v>
       </c>
       <c r="G24" t="n">
-        <v>-104.9968770049505</v>
+        <v>-64.80338622418861</v>
       </c>
     </row>
     <row r="25">
@@ -1050,19 +1050,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>342.0633444490917</v>
+        <v>243.3050990937851</v>
       </c>
       <c r="F25" t="n">
-        <v>-449.5229175306117</v>
+        <v>-301.3870688288526</v>
       </c>
       <c r="G25" t="n">
-        <v>-107.45957308152</v>
+        <v>-58.08196973506756</v>
       </c>
     </row>
     <row r="26">
@@ -1071,23 +1071,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12km_pacerunnning</t>
+          <t>10km_pacerunnning</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>380.74577470979</v>
+        <v>277.9579519058541</v>
       </c>
       <c r="F26" t="n">
-        <v>-512.9318292816791</v>
+        <v>-361.9497080875966</v>
       </c>
       <c r="G26" t="n">
-        <v>-132.1860545718891</v>
+        <v>-83.99175618174252</v>
       </c>
     </row>
     <row r="27">
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>372.3780762680434</v>
+        <v>271.8492345528999</v>
       </c>
       <c r="F27" t="n">
-        <v>-479.8513091380561</v>
+        <v>-338.6064801461017</v>
       </c>
       <c r="G27" t="n">
-        <v>-107.4732328700127</v>
+        <v>-66.75724559320179</v>
       </c>
     </row>
     <row r="28">
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>377.3942758019614</v>
+        <v>285.6747692601671</v>
       </c>
       <c r="F28" t="n">
-        <v>-475.3042514752177</v>
+        <v>-356.368727353648</v>
       </c>
       <c r="G28" t="n">
-        <v>-97.90997567325621</v>
+        <v>-70.69395809348089</v>
       </c>
     </row>
     <row r="29">
@@ -1146,23 +1146,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2000m_interval×5</t>
+          <t>1000m_interval×5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>418.6002336790799</v>
+        <v>304.396458428204</v>
       </c>
       <c r="F29" t="n">
-        <v>-543.6504472702907</v>
+        <v>-383.3854336861658</v>
       </c>
       <c r="G29" t="n">
-        <v>-125.0502135912108</v>
+        <v>-78.98897525796178</v>
       </c>
     </row>
     <row r="30">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>409.4006029655387</v>
+        <v>297.7066986460914</v>
       </c>
       <c r="F30" t="n">
-        <v>-508.5887908369201</v>
+        <v>-358.6597511727842</v>
       </c>
       <c r="G30" t="n">
-        <v>-99.18818787138139</v>
+        <v>-60.95305252669277</v>
       </c>
     </row>
     <row r="31">
@@ -1196,23 +1196,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jog</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>413.6031537092836</v>
+        <v>291.1639605677577</v>
       </c>
       <c r="F31" t="n">
-        <v>-502.1883663367232</v>
+        <v>-335.5287024718416</v>
       </c>
       <c r="G31" t="n">
-        <v>-88.58521262743955</v>
+        <v>-44.36474190408393</v>
       </c>
     </row>
     <row r="32">
@@ -1228,16 +1228,16 @@
         <v>1.5</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>432.5633444594433</v>
+        <v>301.2650130784713</v>
       </c>
       <c r="F32" t="n">
-        <v>-525.9007245096215</v>
+        <v>-346.8894448410032</v>
       </c>
       <c r="G32" t="n">
-        <v>-93.33738005017813</v>
+        <v>-45.62443176253191</v>
       </c>
     </row>
   </sheetData>
